--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43589,6 +43589,41 @@
         </is>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43624,6 +43624,41 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43659,6 +43659,43 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43696,6 +43696,41 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43731,6 +43731,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43768,6 +43768,43 @@
         </is>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43805,6 +43805,41 @@
         </is>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43840,6 +43840,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43877,6 +43877,41 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43912,6 +43912,43 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43949,6 +43949,43 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43986,6 +43986,43 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44023,6 +44023,80 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44097,6 +44097,78 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44169,6 +44169,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44206,6 +44206,43 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44243,6 +44243,41 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>44000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44278,6 +44278,76 @@
         <v>44000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>80000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44348,6 +44348,41 @@
         <v>80000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>41000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44383,6 +44383,43 @@
         <v>41000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2186"/>
+  <dimension ref="A1:I2187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77880,6 +77880,41 @@
         </is>
       </c>
     </row>
+    <row r="2187">
+      <c r="A2187" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2187" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2187" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D2187" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E2187" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2187" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H2187" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I2187" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2187"/>
+  <dimension ref="A1:I2188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77915,6 +77915,41 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="2188">
+      <c r="A2188" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2188" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2188" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D2188" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E2188" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G2188" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2188" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I2188" t="n">
+        <v>233700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2188"/>
+  <dimension ref="A1:I2189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77950,6 +77950,41 @@
         <v>233700</v>
       </c>
     </row>
+    <row r="2189">
+      <c r="A2189" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2189" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2189" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D2189" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E2189" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2189" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G2189" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2189" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2189" t="n">
+        <v>29900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2189"/>
+  <dimension ref="A1:I2190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77985,6 +77985,41 @@
         <v>29900</v>
       </c>
     </row>
+    <row r="2190">
+      <c r="A2190" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2190" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2190" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D2190" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E2190" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2190" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2190" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2190" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2190" t="n">
+        <v>14300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2190"/>
+  <dimension ref="A1:I2191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78020,6 +78020,41 @@
         <v>14300</v>
       </c>
     </row>
+    <row r="2191">
+      <c r="A2191" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2191" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2191" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D2191" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E2191" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F2191" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2191" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H2191" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2191" t="n">
+        <v>43000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2191"/>
+  <dimension ref="A1:I2192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78055,6 +78055,43 @@
         <v>43000</v>
       </c>
     </row>
+    <row r="2192">
+      <c r="A2192" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2192" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2192" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D2192" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E2192" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2192" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2192" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2192" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2192" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2192"/>
+  <dimension ref="A1:I2193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78092,6 +78092,43 @@
         </is>
       </c>
     </row>
+    <row r="2193">
+      <c r="A2193" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2193" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2193" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D2193" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E2193" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2193" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2193" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2193" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2193" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2193"/>
+  <dimension ref="A1:I2194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78129,6 +78129,41 @@
         </is>
       </c>
     </row>
+    <row r="2194">
+      <c r="A2194" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2194" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2194" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D2194" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E2194" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F2194" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G2194" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H2194" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I2194" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2194"/>
+  <dimension ref="A1:I2195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78164,6 +78164,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2195">
+      <c r="A2195" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2195" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2195" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D2195" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E2195" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F2195" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G2195" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H2195" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I2195" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2195"/>
+  <dimension ref="A1:I2196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78199,6 +78199,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2196">
+      <c r="A2196" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2196" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2196" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D2196" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E2196" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F2196" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G2196" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H2196" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I2196" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2196"/>
+  <dimension ref="A1:I2197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78234,6 +78234,43 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="2197">
+      <c r="A2197" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2197" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2197" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D2197" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E2197" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F2197" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G2197" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H2197" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I2197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2197"/>
+  <dimension ref="A1:I2198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78271,6 +78271,41 @@
         </is>
       </c>
     </row>
+    <row r="2198">
+      <c r="A2198" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2198" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2198" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D2198" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E2198" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F2198" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G2198" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H2198" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I2198" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2198"/>
+  <dimension ref="A1:I2199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78306,6 +78306,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2199">
+      <c r="A2199" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2199" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2199" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D2199" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E2199" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F2199" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G2199" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H2199" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I2199" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2199"/>
+  <dimension ref="A1:I2200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78341,6 +78341,43 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="2200">
+      <c r="A2200" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2200" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2200" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D2200" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E2200" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F2200" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G2200" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H2200" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I2200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8192.xlsx
+++ b/data/8192.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2200"/>
+  <dimension ref="A1:I2201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78378,6 +78378,43 @@
         </is>
       </c>
     </row>
+    <row r="2201">
+      <c r="A2201" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2201" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2201" t="inlineStr">
+        <is>
+          <t>8192</t>
+        </is>
+      </c>
+      <c r="D2201" t="inlineStr">
+        <is>
+          <t>MERCURY</t>
+        </is>
+      </c>
+      <c r="E2201" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F2201" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G2201" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H2201" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I2201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
